--- a/Fourth Order System.xlsx
+++ b/Fourth Order System.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
   <si>
     <t>parametri</t>
   </si>
@@ -93,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -103,14 +103,70 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,35 +180,35 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.16159605420848996</v>
+        <v>0.23577686027943046</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -161,70 +217,70 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.22715580133589958</v>
+        <v>0.19214580272677734</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.8962053906221712</v>
+        <v>4.7509406042162823</v>
       </c>
       <c r="C3">
-        <v>9.8962053906221712</v>
+        <v>4.7509406042162823</v>
       </c>
       <c r="D3">
-        <v>9.8962053906221712</v>
+        <v>4.7509406042162823</v>
       </c>
       <c r="E3">
-        <v>2.0503028861242663</v>
+        <v>3.373941570848662</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>71.162473503404115</v>
+        <v>58.651785415901074</v>
       </c>
       <c r="C4">
-        <v>71.162473503404115</v>
+        <v>58.651785415901074</v>
       </c>
       <c r="D4">
-        <v>71.162473503404115</v>
+        <v>58.651785415901074</v>
       </c>
       <c r="E4">
-        <v>114.09296061339019</v>
+        <v>130.05599851969444</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.3914829260375656</v>
+        <v>42.655971670261714</v>
       </c>
       <c r="C5">
-        <v>2.3914829260375656</v>
+        <v>42.655971670261714</v>
       </c>
       <c r="D5">
-        <v>2.3914829260375656</v>
+        <v>42.655971670261714</v>
       </c>
       <c r="E5">
-        <v>28.437680162429405</v>
+        <v>41.707667695254862</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>8.1745351737931138</v>
+        <v>3.3301466100107349</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -241,7 +297,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -258,83 +314,83 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>18.934828007830752</v>
+        <v>19.994590688756492</v>
       </c>
       <c r="C9">
-        <v>18.934828007830752</v>
+        <v>19.994590688756492</v>
       </c>
       <c r="D9">
-        <v>18.934828007830752</v>
+        <v>19.994590688756492</v>
       </c>
       <c r="E9">
-        <v>16.546479780574877</v>
+        <v>12.303252201965231</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>16.878089996682633</v>
+        <v>11.871555520361023</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.082518289904312106</v>
+        <v>0.079375145405977801</v>
       </c>
       <c r="C11">
-        <v>0.082518289904312106</v>
+        <v>0.079375145405977801</v>
       </c>
       <c r="D11">
-        <v>0.082518289904312106</v>
+        <v>0.079375145405977801</v>
       </c>
       <c r="E11">
-        <v>0.052817257915443304</v>
+        <v>0.053032899066721137</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.75313899127268091</v>
+        <v>1.1479665640946535</v>
       </c>
       <c r="C12">
-        <v>0.75313899127268091</v>
+        <v>1.1479665640946535</v>
       </c>
       <c r="D12">
-        <v>0.75313899127268091</v>
+        <v>1.1479665640946535</v>
       </c>
       <c r="E12">
-        <v>1.3102498261188531</v>
+        <v>1.4445086744757594</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>37.327794140216362</v>
+        <v>56.146805155503898</v>
       </c>
       <c r="C13">
-        <v>37.327794140216362</v>
+        <v>56.146805155503898</v>
       </c>
       <c r="D13">
-        <v>37.327794140216362</v>
+        <v>56.146805155503898</v>
       </c>
       <c r="E13">
-        <v>62.621210951794225</v>
+        <v>53.784979186161294</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -351,37 +407,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.3732779414021636</v>
+        <v>1.5614680515550388</v>
       </c>
       <c r="C15">
-        <v>1.3732779414021636</v>
+        <v>1.5614680515550388</v>
       </c>
       <c r="D15">
-        <v>1.3732779414021636</v>
+        <v>1.5614680515550388</v>
       </c>
       <c r="E15">
-        <v>1.6262121095179423</v>
+        <v>1.537849791861613</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.214283152990426</v>
+        <v>0.2259951255847884</v>
       </c>
       <c r="C16">
-        <v>0.214283152990426</v>
+        <v>0.2259951255847884</v>
       </c>
       <c r="D16">
-        <v>0.214283152990426</v>
+        <v>0.2259951255847884</v>
       </c>
       <c r="E16">
-        <v>0.15234285276686055</v>
+        <v>0.14107903687027973</v>
       </c>
     </row>
   </sheetData>

--- a/Fourth Order System.xlsx
+++ b/Fourth Order System.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="20">
   <si>
     <t>parametri</t>
   </si>
@@ -93,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -131,11 +131,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -167,6 +169,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,114 +185,111 @@
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.23577686027943046</v>
+        <v>0.43960107834925488</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.2788181200950361</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.19214580272677734</v>
+        <v>0.17251964438361417</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7509406042162823</v>
+        <v>8.9866892121147774</v>
       </c>
       <c r="C3">
-        <v>4.7509406042162823</v>
+        <v>9.9627450277058056</v>
       </c>
       <c r="D3">
-        <v>4.7509406042162823</v>
+        <v>8.9866892121147774</v>
       </c>
       <c r="E3">
-        <v>3.373941570848662</v>
+        <v>0.493431640625</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>58.651785415901074</v>
+        <v>132.22634900511301</v>
       </c>
       <c r="C4">
-        <v>58.651785415901074</v>
+        <v>0.97500000000000009</v>
       </c>
       <c r="D4">
-        <v>58.651785415901074</v>
+        <v>132.22634900511301</v>
       </c>
       <c r="E4">
-        <v>130.05599851969444</v>
+        <v>373.31274116378131</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>42.655971670261714</v>
+        <v>15.356746918119697</v>
       </c>
       <c r="C5">
-        <v>42.655971670261714</v>
+        <v>29.357443655846968</v>
       </c>
       <c r="D5">
-        <v>42.655971670261714</v>
+        <v>15.356746918119697</v>
       </c>
       <c r="E5">
-        <v>41.707667695254862</v>
+        <v>20.151803823206329</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>3.3301466100107349</v>
+        <v>0.83291281576029852</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -297,14 +298,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -314,83 +312,83 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>19.994590688756492</v>
+        <v>15.962509454187725</v>
       </c>
       <c r="C9">
-        <v>19.994590688756492</v>
+        <v>5.728271484375</v>
       </c>
       <c r="D9">
-        <v>19.994590688756492</v>
+        <v>15.962509454187725</v>
       </c>
       <c r="E9">
-        <v>12.303252201965231</v>
+        <v>19.905693690524828</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>11.871555520361023</v>
+        <v>6.0621013641357422</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.079375145405977801</v>
+        <v>0.073488982655406071</v>
       </c>
       <c r="C11">
-        <v>0.079375145405977801</v>
+        <v>0.42912326982862897</v>
       </c>
       <c r="D11">
-        <v>0.079375145405977801</v>
+        <v>0.073488982655406071</v>
       </c>
       <c r="E11">
-        <v>0.053032899066721137</v>
+        <v>0.051003980506685809</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.1479665640946535</v>
+        <v>2.3804629988127632</v>
       </c>
       <c r="C12">
-        <v>1.1479665640946535</v>
+        <v>11.750676707782409</v>
       </c>
       <c r="D12">
-        <v>1.1479665640946535</v>
+        <v>2.3804629988127632</v>
       </c>
       <c r="E12">
-        <v>1.4445086744757594</v>
+        <v>1.0193937607149657</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>56.146805155503898</v>
+        <v>78.620347769548886</v>
       </c>
       <c r="C13">
-        <v>56.146805155503898</v>
+        <v>25.879387891978077</v>
       </c>
       <c r="D13">
-        <v>56.146805155503898</v>
+        <v>78.620347769548886</v>
       </c>
       <c r="E13">
-        <v>53.784979186161294</v>
+        <v>69.267916956053384</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -407,37 +405,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.5614680515550388</v>
+        <v>1.7862034776954889</v>
       </c>
       <c r="C15">
-        <v>1.5614680515550388</v>
+        <v>1.2587938789197808</v>
       </c>
       <c r="D15">
-        <v>1.5614680515550388</v>
+        <v>1.7862034776954889</v>
       </c>
       <c r="E15">
-        <v>1.537849791861613</v>
+        <v>1.6926791695605339</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.2259951255847884</v>
+        <v>0.21012531876605234</v>
       </c>
       <c r="C16">
-        <v>0.2259951255847884</v>
+        <v>1.0238483176725193</v>
       </c>
       <c r="D16">
-        <v>0.2259951255847884</v>
+        <v>0.21012531876605234</v>
       </c>
       <c r="E16">
-        <v>0.14107903687027973</v>
+        <v>0.15197225821014018</v>
       </c>
     </row>
   </sheetData>

--- a/Fourth Order System.xlsx
+++ b/Fourth Order System.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="24">
   <si>
     <t>parametri</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>PIDA</t>
+  </si>
+  <si>
+    <t>PID_DIST</t>
+  </si>
+  <si>
+    <t>IPD_DIST</t>
+  </si>
+  <si>
+    <t>DPI_DIST</t>
+  </si>
+  <si>
+    <t>PIDA_DIST</t>
   </si>
 </sst>
 </file>
@@ -93,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -133,11 +145,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -171,6 +189,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,215 +204,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="37" t="s">
         <v>19</v>
       </c>
+      <c r="F1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.43960107834925488</v>
+        <v>0.19984303882313476</v>
       </c>
       <c r="C2">
-        <v>1.2788181200950361</v>
+        <v>1.9136610282918656</v>
       </c>
       <c r="D2">
+        <v>0.43086896093834837</v>
+      </c>
+      <c r="E2">
+        <v>0.20181330184406146</v>
+      </c>
+      <c r="F2">
+        <v>0.19984303882313476</v>
+      </c>
+      <c r="G2">
+        <v>1.9136610282918656</v>
+      </c>
+      <c r="H2">
+        <v>0.43086896093834837</v>
+      </c>
+      <c r="I2">
+        <v>0.20181330184406146</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7.9854896347915618</v>
+      </c>
+      <c r="C3">
+        <v>0.13375836408138275</v>
+      </c>
+      <c r="D3">
+        <v>7.2616083412394916</v>
+      </c>
+      <c r="E3">
+        <v>1.5731881599886415</v>
+      </c>
+      <c r="F3">
+        <v>7.9854896347915618</v>
+      </c>
+      <c r="G3">
+        <v>0.13375836408138275</v>
+      </c>
+      <c r="H3">
+        <v>7.2616083412394916</v>
+      </c>
+      <c r="I3">
+        <v>1.5731881599886415</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>17.773913054840232</v>
+      </c>
+      <c r="C4">
+        <v>0.12565217018127442</v>
+      </c>
+      <c r="D4">
+        <v>0.2248077154159546</v>
+      </c>
+      <c r="E4">
+        <v>195.43502033598466</v>
+      </c>
+      <c r="F4">
+        <v>17.773913054840232</v>
+      </c>
+      <c r="G4">
+        <v>0.12565217018127442</v>
+      </c>
+      <c r="H4">
+        <v>0.2248077154159546</v>
+      </c>
+      <c r="I4">
+        <v>195.43502033598466</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>19.454976655102417</v>
+      </c>
+      <c r="C5">
+        <v>49.655234779803124</v>
+      </c>
+      <c r="D5">
+        <v>0.43179515788063477</v>
+      </c>
+      <c r="E5">
+        <v>14.574357435443469</v>
+      </c>
+      <c r="F5">
+        <v>19.454976655102417</v>
+      </c>
+      <c r="G5">
+        <v>49.655234779803124</v>
+      </c>
+      <c r="H5">
+        <v>0.43179515788063477</v>
+      </c>
+      <c r="I5">
+        <v>14.574357435443469</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3.2506130082341897</v>
+      </c>
+      <c r="I6">
+        <v>3.2506130082341897</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>18.917774615475075</v>
+      </c>
+      <c r="C9">
+        <v>5.0585800111293793</v>
+      </c>
+      <c r="D9">
+        <v>5.0001220852136612</v>
+      </c>
+      <c r="E9">
+        <v>5.4954624176025391</v>
+      </c>
+      <c r="F9">
+        <v>18.917774615475075</v>
+      </c>
+      <c r="G9">
+        <v>5.0585800111293793</v>
+      </c>
+      <c r="H9">
+        <v>5.0001220852136612</v>
+      </c>
+      <c r="I9">
+        <v>5.4954624176025391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>10.448014213366751</v>
+      </c>
+      <c r="I10">
+        <v>10.448014213366751</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.080415245796789825</v>
+      </c>
+      <c r="C11">
+        <v>1.4889958077433612</v>
+      </c>
+      <c r="D11">
+        <v>0.36459298342800051</v>
+      </c>
+      <c r="E11">
+        <v>0.063269497156382817</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0.17251964438361417</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8.9866892121147774</v>
-      </c>
-      <c r="C3">
-        <v>9.9627450277058056</v>
-      </c>
-      <c r="D3">
-        <v>8.9866892121147774</v>
-      </c>
-      <c r="E3">
-        <v>0.493431640625</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>132.22634900511301</v>
-      </c>
-      <c r="C4">
-        <v>0.97500000000000009</v>
-      </c>
-      <c r="D4">
-        <v>132.22634900511301</v>
-      </c>
-      <c r="E4">
-        <v>373.31274116378131</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>15.356746918119697</v>
-      </c>
-      <c r="C5">
-        <v>29.357443655846968</v>
-      </c>
-      <c r="D5">
-        <v>15.356746918119697</v>
-      </c>
-      <c r="E5">
-        <v>20.151803823206329</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.83291281576029852</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>15.962509454187725</v>
-      </c>
-      <c r="C9">
-        <v>5.728271484375</v>
-      </c>
-      <c r="D9">
-        <v>15.962509454187725</v>
-      </c>
-      <c r="E9">
-        <v>19.905693690524828</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>6.0621013641357422</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.073488982655406071</v>
-      </c>
-      <c r="C11">
-        <v>0.42912326982862897</v>
-      </c>
-      <c r="D11">
-        <v>0.073488982655406071</v>
-      </c>
-      <c r="E11">
-        <v>0.051003980506685809</v>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.3804629988127632</v>
+        <v>1.2013345129255295</v>
       </c>
       <c r="C12">
-        <v>11.750676707782409</v>
+        <v>8.4452609827110372</v>
       </c>
       <c r="D12">
-        <v>2.3804629988127632</v>
+        <v>3.5617120945799683</v>
       </c>
       <c r="E12">
-        <v>1.0193937607149657</v>
+        <v>1.0883069330780109</v>
+      </c>
+      <c r="F12">
+        <v>7.3470870240328301</v>
+      </c>
+      <c r="G12">
+        <v>9.489823767101667</v>
+      </c>
+      <c r="H12">
+        <v>3.5470620637923518</v>
+      </c>
+      <c r="I12">
+        <v>2.1865882690581024</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>78.620347769548886</v>
+        <v>40.47981886469416</v>
       </c>
       <c r="C13">
-        <v>25.879387891978077</v>
+        <v>21.546661312036107</v>
       </c>
       <c r="D13">
-        <v>78.620347769548886</v>
+        <v>32.1915019317466</v>
       </c>
       <c r="E13">
-        <v>69.267916956053384</v>
+        <v>61.697731482489758</v>
+      </c>
+      <c r="F13">
+        <v>65535</v>
+      </c>
+      <c r="G13">
+        <v>65535</v>
+      </c>
+      <c r="H13">
+        <v>65535</v>
+      </c>
+      <c r="I13">
+        <v>65535</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -403,39 +551,75 @@
       <c r="E14">
         <v>-0</v>
       </c>
+      <c r="F14">
+        <v>65535</v>
+      </c>
+      <c r="G14">
+        <v>65535</v>
+      </c>
+      <c r="H14">
+        <v>65535</v>
+      </c>
+      <c r="I14">
+        <v>65535</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.7862034776954889</v>
+        <v>1.4047981886469416</v>
       </c>
       <c r="C15">
-        <v>1.2587938789197808</v>
+        <v>1.2154666131203611</v>
       </c>
       <c r="D15">
-        <v>1.7862034776954889</v>
+        <v>1.3219150193174658</v>
       </c>
       <c r="E15">
-        <v>1.6926791695605339</v>
+        <v>1.6169773148248976</v>
+      </c>
+      <c r="F15">
+        <v>0.052122721030720819</v>
+      </c>
+      <c r="G15">
+        <v>0.56074627472166616</v>
+      </c>
+      <c r="H15">
+        <v>0.052138690737867407</v>
+      </c>
+      <c r="I15">
+        <v>0.037933461083967487</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.21012531876605234</v>
+        <v>0.2092393606063544</v>
       </c>
       <c r="C16">
-        <v>1.0238483176725193</v>
+        <v>3.479321646534367</v>
       </c>
       <c r="D16">
-        <v>0.21012531876605234</v>
+        <v>0.96384117740635067</v>
       </c>
       <c r="E16">
-        <v>0.15197225821014018</v>
+        <v>0.17250567906034905</v>
+      </c>
+      <c r="F16">
+        <v>0.2092393606063544</v>
+      </c>
+      <c r="G16">
+        <v>1.3275899736658356</v>
+      </c>
+      <c r="H16">
+        <v>0.45141928562069444</v>
+      </c>
+      <c r="I16">
+        <v>0.17250567906034905</v>
       </c>
     </row>
   </sheetData>

--- a/Fourth Order System.xlsx
+++ b/Fourth Order System.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="24">
   <si>
     <t>parametri</t>
   </si>
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -129,11 +129,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -151,6 +167,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,174 +196,174 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.24208968269824341</v>
+        <v>0.3578578668445791</v>
       </c>
       <c r="C2">
-        <v>0.99668676876943374</v>
+        <v>0.35344260577312958</v>
       </c>
       <c r="D2">
-        <v>0.97682480090748436</v>
+        <v>0.60678424228613403</v>
       </c>
       <c r="E2">
-        <v>0.22596655210049527</v>
+        <v>0.11036295421166409</v>
       </c>
       <c r="F2">
-        <v>0.24208968269824341</v>
+        <v>0.3578578668445791</v>
       </c>
       <c r="G2">
-        <v>0.99668676876943374</v>
+        <v>0.35344260577312958</v>
       </c>
       <c r="H2">
-        <v>0.97682480090748436</v>
+        <v>0.60678424228613403</v>
       </c>
       <c r="I2">
-        <v>0.22596655210049527</v>
+        <v>0.11036295421166409</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.9999891953746491</v>
+        <v>4.6367552434549362</v>
       </c>
       <c r="C3">
-        <v>5.5205556939230167</v>
+        <v>9.9989915613672213</v>
       </c>
       <c r="D3">
-        <v>1.7677449269864107</v>
+        <v>2.9422582798328656</v>
       </c>
       <c r="E3">
-        <v>1.8766142160371702</v>
+        <v>6.2586012813060972</v>
       </c>
       <c r="F3">
-        <v>9.9999891953746491</v>
+        <v>4.6367552434549362</v>
       </c>
       <c r="G3">
-        <v>5.5205556939230167</v>
+        <v>9.9989915613672213</v>
       </c>
       <c r="H3">
-        <v>1.7677449269864107</v>
+        <v>2.9422582798328656</v>
       </c>
       <c r="I3">
-        <v>1.8766142160371702</v>
+        <v>6.2586012813060972</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>183.6054614713195</v>
+        <v>111.62745055965084</v>
       </c>
       <c r="C4">
-        <v>0.73110448822872043</v>
+        <v>0.13433465957641602</v>
       </c>
       <c r="D4">
-        <v>0.3460052967071533</v>
+        <v>0.24404931397301566</v>
       </c>
       <c r="E4">
-        <v>66.100632950758353</v>
+        <v>58.834294663375644</v>
       </c>
       <c r="F4">
-        <v>183.6054614713195</v>
+        <v>111.62745055965084</v>
       </c>
       <c r="G4">
-        <v>0.73110448822872043</v>
+        <v>0.13433465957641602</v>
       </c>
       <c r="H4">
-        <v>0.3460052967071533</v>
+        <v>0.24404931397301566</v>
       </c>
       <c r="I4">
-        <v>66.100632950758353</v>
+        <v>58.834294663375644</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.0459504985955617</v>
+        <v>28.000160470391801</v>
       </c>
       <c r="C5">
-        <v>34.459812095980986</v>
+        <v>0.53341915705591947</v>
       </c>
       <c r="D5">
-        <v>1.4188698493003273</v>
+        <v>0.94857177734375009</v>
       </c>
       <c r="E5">
-        <v>28.170330362082073</v>
+        <v>24.892630902241777</v>
       </c>
       <c r="F5">
-        <v>2.0459504985955617</v>
+        <v>28.000160470391801</v>
       </c>
       <c r="G5">
-        <v>34.459812095980986</v>
+        <v>0.53341915705591947</v>
       </c>
       <c r="H5">
-        <v>1.4188698493003273</v>
+        <v>0.94857177734375009</v>
       </c>
       <c r="I5">
-        <v>28.170330362082073</v>
+        <v>24.892630902241777</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>14.840879854471822</v>
+        <v>0.38291320800781259</v>
       </c>
       <c r="I6">
-        <v>14.840879854471822</v>
+        <v>0.38291320800781259</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -360,7 +392,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -389,60 +421,60 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>19.992031660544978</v>
+        <v>19.992204130017448</v>
       </c>
       <c r="C9">
-        <v>14.591563357279087</v>
+        <v>13.884886025205596</v>
       </c>
       <c r="D9">
-        <v>14.78733161254398</v>
+        <v>5.0345687866210938</v>
       </c>
       <c r="E9">
-        <v>19.816742465452887</v>
+        <v>18.761875724281893</v>
       </c>
       <c r="F9">
-        <v>19.992031660544978</v>
+        <v>19.992204130017448</v>
       </c>
       <c r="G9">
-        <v>14.591563357279087</v>
+        <v>13.884886025205596</v>
       </c>
       <c r="H9">
-        <v>14.78733161254398</v>
+        <v>5.0345687866210938</v>
       </c>
       <c r="I9">
-        <v>19.816742465452887</v>
+        <v>18.761875724281893</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>18.670973628352751</v>
+        <v>6.015625</v>
       </c>
       <c r="I10">
-        <v>18.670973628352751</v>
+        <v>6.015625</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.071984038703514469</v>
+        <v>0.07536897076291843</v>
       </c>
       <c r="C11">
-        <v>0.53173217883012347</v>
+        <v>0.20427425824737971</v>
       </c>
       <c r="D11">
-        <v>1.0135760404820191</v>
+        <v>0.62669297908068566</v>
       </c>
       <c r="E11">
-        <v>0.057740199169698608</v>
+        <v>0.048462916710632235</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -458,49 +490,49 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.92414030756731369</v>
+        <v>1.9643101051658507</v>
       </c>
       <c r="C12">
-        <v>6.8875152297217594</v>
+        <v>1.6479584364415485</v>
       </c>
       <c r="D12">
-        <v>9.0630446494069368</v>
+        <v>6.0265260193539243</v>
       </c>
       <c r="E12">
-        <v>1.4243425672461556</v>
+        <v>1.0453310312489095</v>
       </c>
       <c r="F12">
-        <v>0.82700478803750044</v>
+        <v>1.7769070623608509</v>
       </c>
       <c r="G12">
-        <v>4.9845732179380207</v>
+        <v>1.828490538601415</v>
       </c>
       <c r="H12">
-        <v>10.467587934842966</v>
+        <v>6.8639989117205289</v>
       </c>
       <c r="I12">
-        <v>4.904801982178399</v>
+        <v>3.0551645327470269</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>71.110244472239927</v>
+        <v>72.512193541766507</v>
       </c>
       <c r="C13">
-        <v>15.044321100524648</v>
+        <v>30.758724406950332</v>
       </c>
       <c r="D13">
-        <v>35.336080228979029</v>
+        <v>32.733802944385545</v>
       </c>
       <c r="E13">
-        <v>58.796480239738777</v>
+        <v>12.262809385627493</v>
       </c>
       <c r="F13">
         <v>65535</v>
@@ -516,7 +548,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -545,61 +577,61 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.7111024447223993</v>
+        <v>1.725121935417665</v>
       </c>
       <c r="C15">
-        <v>1.1504432110052465</v>
+        <v>1.3075872440695033</v>
       </c>
       <c r="D15">
-        <v>1.3533608022897903</v>
+        <v>1.3273380294438555</v>
       </c>
       <c r="E15">
-        <v>1.5879648023973878</v>
+        <v>1.1226280938562749</v>
       </c>
       <c r="F15">
-        <v>0.046027725894204501</v>
+        <v>0.04903947283976344</v>
       </c>
       <c r="G15">
-        <v>0.22528956408233078</v>
+        <v>0.059287087156956818</v>
       </c>
       <c r="H15">
-        <v>0.14884108488952322</v>
+        <v>0.09234199286350242</v>
       </c>
       <c r="I15">
-        <v>0.035233765840205808</v>
+        <v>0.038413190203971825</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.2170762466865345</v>
+        <v>0.23204042490437835</v>
       </c>
       <c r="C16">
-        <v>1.1700928891135123</v>
+        <v>0.53976104074146458</v>
       </c>
       <c r="D16">
-        <v>2.4106328060156659</v>
+        <v>1.5914522238198836</v>
       </c>
       <c r="E16">
-        <v>0.16474459198779548</v>
+        <v>0.10461929166883177</v>
       </c>
       <c r="F16">
-        <v>0.18451480968355433</v>
+        <v>0.18985125673994591</v>
       </c>
       <c r="G16">
-        <v>0.54943492184460574</v>
+        <v>0.24289246833365941</v>
       </c>
       <c r="H16">
-        <v>1.057311609919781</v>
+        <v>0.65952074140284023</v>
       </c>
       <c r="I16">
-        <v>0.16497703028361718</v>
+        <v>0.3099004883734337</v>
       </c>
     </row>
   </sheetData>
